--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>748284.9308587665</v>
+        <v>705080.620159187</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12295679.87140157</v>
+        <v>12205502.18721564</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6599598.368907738</v>
+        <v>6542397.623592306</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9292175.535480909</v>
+        <v>9329793.676557215</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.21796062064469</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>279.1993573163256</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>315.9507876390585</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>315.9507876390585</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2858522432799</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.9689065212586</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.9689065212586</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.9689065212586</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>50.28265567618297</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0222473808715</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>55.08169794802711</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>43.90554604719505</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8832711572742</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3786395914536</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.138668295273</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.04421029292752</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>23.34060264886481</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.85805945030003</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>220.4583560726045</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>94.39153821947171</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188235</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
         <v>225.8092030868072</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>4.128941338910925</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>144.8586974472234</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>285.6883122697282</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>40.31252347114902</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>42.78292969784897</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1353,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>47.65883542934976</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>203.7892779811713</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>94.87352909028176</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>53.98845542720169</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>142.3241364676101</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
-        <v>250.7942834133553</v>
+        <v>14.41370178612518</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>118.169212821623</v>
       </c>
       <c r="T16" t="n">
-        <v>196.1914072494696</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
         <v>286.2271541212006</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,16 +1849,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>224.2966770777423</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>55.37292366924435</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>56.97285057263364</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>173.5578851713683</v>
+        <v>120.6088074159619</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>145.8111705386692</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>115.8416516122276</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>229.7965692041362</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>25.33262519153237</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>115.8416516122271</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2496,7 +2496,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>106.5867442799596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>168.1158122680963</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>193.6959022530812</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2733,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>109.781165125545</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>141.4201311755206</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,22 +2794,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>280.3582493446703</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>268.9870358648567</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>35.71650145566755</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>63.72703424640758</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>219.1834685212288</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>120.564383124314</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3207,7 +3207,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>145.4717465846017</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>15.4148322062577</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>92.4209234259873</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>209.6931219609836</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163.6898441249708</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>7.601081015447068</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>78.78083674901936</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>92.42092342598816</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>64.39306735501795</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>97.28002421814082</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>277.3039539762337</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>291.3627689562704</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>114.2656173771016</v>
+        <v>187.4330611973846</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>179.0497556307023</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>168.1158122680972</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>7.601081015446477</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.816869201471</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.11751252170069</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="C2" t="n">
-        <v>21.11751252170069</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="D2" t="n">
-        <v>21.11751252170069</v>
+        <v>981.7835977114606</v>
       </c>
       <c r="E2" t="n">
-        <v>21.11751252170069</v>
+        <v>981.7835977114606</v>
       </c>
       <c r="F2" t="n">
-        <v>21.11751252170069</v>
+        <v>662.6413879750379</v>
       </c>
       <c r="G2" t="n">
-        <v>21.11751252170069</v>
+        <v>343.4991782386152</v>
       </c>
       <c r="H2" t="n">
-        <v>21.11751252170069</v>
+        <v>25.27606301112468</v>
       </c>
       <c r="I2" t="n">
-        <v>21.11751252170069</v>
+        <v>25.27606301112468</v>
       </c>
       <c r="J2" t="n">
-        <v>49.37724922406483</v>
+        <v>46.51031300450798</v>
       </c>
       <c r="K2" t="n">
-        <v>142.4697872058648</v>
+        <v>129.0734675791003</v>
       </c>
       <c r="L2" t="n">
-        <v>294.8610742355298</v>
+        <v>268.4021234203535</v>
       </c>
       <c r="M2" t="n">
-        <v>496.0951811576197</v>
+        <v>455.1015362457612</v>
       </c>
       <c r="N2" t="n">
-        <v>705.1992746923233</v>
+        <v>649.4357491377435</v>
       </c>
       <c r="O2" t="n">
-        <v>889.3150794756991</v>
+        <v>819.604774454703</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.952658329665</v>
+        <v>1132.396054217371</v>
       </c>
       <c r="Q2" t="n">
-        <v>1055.875626085034</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="R2" t="n">
-        <v>1055.875626085034</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="S2" t="n">
-        <v>1055.875626085034</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="T2" t="n">
-        <v>841.4454723039436</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="U2" t="n">
-        <v>841.4454723039436</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="V2" t="n">
-        <v>574.8102131915612</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="W2" t="n">
-        <v>308.1749540791787</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="X2" t="n">
-        <v>41.53969496679633</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.53969496679633</v>
+        <v>1263.803150556234</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>887.6602890649663</v>
+        <v>495.4843368183818</v>
       </c>
       <c r="C3" t="n">
-        <v>713.2072597838393</v>
+        <v>321.0313075372549</v>
       </c>
       <c r="D3" t="n">
-        <v>564.272850122588</v>
+        <v>172.0968978760036</v>
       </c>
       <c r="E3" t="n">
-        <v>405.0353951171325</v>
+        <v>172.0968978760036</v>
       </c>
       <c r="F3" t="n">
-        <v>258.5008371440175</v>
+        <v>172.0968978760036</v>
       </c>
       <c r="G3" t="n">
-        <v>121.1046276683897</v>
+        <v>172.0968978760036</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46654893300881</v>
+        <v>71.18092002080819</v>
       </c>
       <c r="I3" t="n">
-        <v>21.11751252170069</v>
+        <v>25.27606301112468</v>
       </c>
       <c r="J3" t="n">
-        <v>21.11751252170069</v>
+        <v>25.27606301112468</v>
       </c>
       <c r="K3" t="n">
-        <v>95.87702162399727</v>
+        <v>92.88388267448171</v>
       </c>
       <c r="L3" t="n">
-        <v>242.7229486636394</v>
+        <v>230.1134806901757</v>
       </c>
       <c r="M3" t="n">
-        <v>433.4420874162544</v>
+        <v>409.6108170447804</v>
       </c>
       <c r="N3" t="n">
-        <v>643.6176391848893</v>
+        <v>722.4020968074483</v>
       </c>
       <c r="O3" t="n">
-        <v>904.9468566409353</v>
+        <v>924.4000669684674</v>
       </c>
       <c r="P3" t="n">
-        <v>1027.485243010257</v>
+        <v>1033.089694495766</v>
       </c>
       <c r="Q3" t="n">
-        <v>1055.875626085034</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="R3" t="n">
-        <v>1055.875626085034</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="S3" t="n">
-        <v>1055.875626085034</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="T3" t="n">
-        <v>1055.875626085034</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="U3" t="n">
-        <v>1055.875626085034</v>
+        <v>1035.6643630674</v>
       </c>
       <c r="V3" t="n">
-        <v>1055.875626085034</v>
+        <v>800.5122548356571</v>
       </c>
       <c r="W3" t="n">
-        <v>1055.875626085034</v>
+        <v>546.2748981074556</v>
       </c>
       <c r="X3" t="n">
-        <v>1055.875626085034</v>
+        <v>546.2748981074556</v>
       </c>
       <c r="Y3" t="n">
-        <v>1055.875626085034</v>
+        <v>546.2748981074556</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.9758963665782</v>
+        <v>263.8684690968893</v>
       </c>
       <c r="C4" t="n">
-        <v>776.9758963665782</v>
+        <v>263.8684690968893</v>
       </c>
       <c r="D4" t="n">
-        <v>776.9758963665782</v>
+        <v>263.8684690968893</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0628027841851</v>
+        <v>263.8684690968893</v>
       </c>
       <c r="F4" t="n">
-        <v>482.1728552862748</v>
+        <v>263.8684690968893</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6038945213513</v>
+        <v>263.8684690968893</v>
       </c>
       <c r="H4" t="n">
-        <v>159.6860767522063</v>
+        <v>263.8684690968893</v>
       </c>
       <c r="I4" t="n">
-        <v>36.31368453475879</v>
+        <v>263.8684690968893</v>
       </c>
       <c r="J4" t="n">
-        <v>21.11751252170069</v>
+        <v>263.8684690968893</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4793129143196</v>
+        <v>364.9163986924991</v>
       </c>
       <c r="L4" t="n">
-        <v>316.8325772215768</v>
+        <v>549.7493935933174</v>
       </c>
       <c r="M4" t="n">
-        <v>527.9225280310204</v>
+        <v>755.0189943125554</v>
       </c>
       <c r="N4" t="n">
-        <v>739.4278480413075</v>
+        <v>960.8423591486596</v>
       </c>
       <c r="O4" t="n">
-        <v>918.7709486843585</v>
+        <v>1134.937254537258</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.709271533632</v>
+        <v>1260.384831135874</v>
       </c>
       <c r="Q4" t="n">
-        <v>1055.23675088445</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="R4" t="n">
-        <v>1031.660384572465</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="S4" t="n">
-        <v>1031.660384572465</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="T4" t="n">
-        <v>1031.660384572465</v>
+        <v>1263.803150556234</v>
       </c>
       <c r="U4" t="n">
-        <v>1031.660384572465</v>
+        <v>1210.411171313507</v>
       </c>
       <c r="V4" t="n">
-        <v>776.9758963665782</v>
+        <v>955.7266831076197</v>
       </c>
       <c r="W4" t="n">
-        <v>776.9758963665782</v>
+        <v>666.3095130706591</v>
       </c>
       <c r="X4" t="n">
-        <v>776.9758963665782</v>
+        <v>666.3095130706591</v>
       </c>
       <c r="Y4" t="n">
-        <v>776.9758963665782</v>
+        <v>445.516933927129</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>805.9975561066591</v>
+        <v>1844.676600992462</v>
       </c>
       <c r="C5" t="n">
-        <v>437.0350391662474</v>
+        <v>1844.676600992462</v>
       </c>
       <c r="D5" t="n">
-        <v>437.0350391662474</v>
+        <v>1486.410902385712</v>
       </c>
       <c r="E5" t="n">
-        <v>51.24678656800315</v>
+        <v>1100.622649787468</v>
       </c>
       <c r="F5" t="n">
-        <v>51.24678656800315</v>
+        <v>689.6367449978602</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800315</v>
+        <v>273.9319947221491</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926628</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532452</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796632</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453061</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182947</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X5" t="n">
-        <v>1196.136888082471</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="Y5" t="n">
-        <v>805.9975561066591</v>
+        <v>2231.276441056584</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>482.9033490193042</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>777.606906050776</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009996</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.154053606941</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783103</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568938</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676484</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780098</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>204.1563325215787</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>204.1563325215787</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>204.1563325215787</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>204.1563325215787</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074498</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074498</v>
+        <v>606.5973764953485</v>
       </c>
       <c r="X7" t="n">
-        <v>1490.124203461141</v>
+        <v>606.5973764953485</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>385.8047973518184</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>807.4678323327887</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="C8" t="n">
-        <v>807.4678323327887</v>
+        <v>1232.885143595139</v>
       </c>
       <c r="D8" t="n">
-        <v>807.4678323327887</v>
+        <v>1232.885143595139</v>
       </c>
       <c r="E8" t="n">
-        <v>421.6795797345444</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>421.6795797345444</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4804,13 +4804,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2521.619607722227</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2268.038546986407</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.975659642836</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>1584.207004372722</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.207004372722</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.06767239691</v>
+        <v>1601.84766053555</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>527.2645251530219</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>821.9680821844937</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963532</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
         <v>51.24678656800311</v>
@@ -4962,16 +4962,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1593.23103957162</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1396.602291731481</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1173.623810926216</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485143</v>
+        <v>884.5054734300539</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426274</v>
+        <v>629.8209852241671</v>
       </c>
       <c r="W10" t="n">
-        <v>281.0354892056668</v>
+        <v>629.8209852241671</v>
       </c>
       <c r="X10" t="n">
-        <v>232.8952513982428</v>
+        <v>401.8314343261497</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8952513982428</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1195.650028617006</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C11" t="n">
-        <v>1195.650028617006</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="D11" t="n">
-        <v>837.3843300102556</v>
+        <v>1053.868699492392</v>
       </c>
       <c r="E11" t="n">
-        <v>837.3843300102556</v>
+        <v>668.0804468941474</v>
       </c>
       <c r="F11" t="n">
-        <v>837.3843300102556</v>
+        <v>257.0945421045398</v>
       </c>
       <c r="G11" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H11" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K11" t="n">
         <v>442.5171852816088</v>
       </c>
       <c r="L11" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M11" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>2437.640120926628</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T11" t="n">
-        <v>2228.894479532452</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U11" t="n">
-        <v>1975.313418796632</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V11" t="n">
-        <v>1644.250531453061</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W11" t="n">
-        <v>1291.481876182947</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X11" t="n">
-        <v>1291.481876182947</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y11" t="n">
-        <v>1195.650028617006</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K12" t="n">
-        <v>560.1394111735143</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L12" t="n">
-        <v>909.2465818694938</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M12" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N12" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O12" t="n">
         <v>1991.864164601821</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>791.0311677684842</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C13" t="n">
-        <v>622.0949848405774</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D13" t="n">
-        <v>471.9783454282416</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E13" t="n">
-        <v>471.9783454282416</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F13" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G13" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H13" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M13" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N13" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q13" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S13" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T13" t="n">
-        <v>1337.233965749941</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U13" t="n">
-        <v>1337.233965749941</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V13" t="n">
-        <v>1337.233965749941</v>
+        <v>967.2321019278427</v>
       </c>
       <c r="W13" t="n">
-        <v>1337.233965749941</v>
+        <v>677.814931890882</v>
       </c>
       <c r="X13" t="n">
-        <v>1193.472211742254</v>
+        <v>677.814931890882</v>
       </c>
       <c r="Y13" t="n">
-        <v>972.679632598724</v>
+        <v>677.814931890882</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1500.227517577123</v>
+        <v>1660.900948886692</v>
       </c>
       <c r="C14" t="n">
-        <v>1131.265000636711</v>
+        <v>1291.93843194628</v>
       </c>
       <c r="D14" t="n">
-        <v>1131.265000636711</v>
+        <v>933.6727333395299</v>
       </c>
       <c r="E14" t="n">
-        <v>1131.265000636711</v>
+        <v>547.8844807412856</v>
       </c>
       <c r="F14" t="n">
-        <v>720.2790958471035</v>
+        <v>547.8844807412856</v>
       </c>
       <c r="G14" t="n">
-        <v>304.5743455713923</v>
+        <v>132.1797304655745</v>
       </c>
       <c r="H14" t="n">
-        <v>51.24678656800315</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J14" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N14" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O14" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S14" t="n">
-        <v>2437.640120926628</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T14" t="n">
-        <v>2437.640120926628</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U14" t="n">
-        <v>2184.059060190807</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V14" t="n">
-        <v>1852.996172847237</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W14" t="n">
-        <v>1500.227517577123</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X14" t="n">
-        <v>1500.227517577123</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y14" t="n">
-        <v>1500.227517577123</v>
+        <v>2047.500788950814</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J15" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>684.9695361605192</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L15" t="n">
-        <v>979.673093191991</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M15" t="n">
-        <v>1342.935112151211</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N15" t="n">
-        <v>1730.220240748157</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O15" t="n">
-        <v>2062.290675924319</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P15" t="n">
-        <v>2309.473409756616</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q15" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R15" t="n">
         <v>2562.339328400155</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C16" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D16" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E16" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F16" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G16" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H16" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312208</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693238</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096592</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N16" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q16" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S16" t="n">
-        <v>1337.233965749941</v>
+        <v>1517.083278840534</v>
       </c>
       <c r="T16" t="n">
-        <v>1139.060827114113</v>
+        <v>1294.10479803527</v>
       </c>
       <c r="U16" t="n">
-        <v>849.9424896179511</v>
+        <v>1004.986460539108</v>
       </c>
       <c r="V16" t="n">
-        <v>595.2580014120642</v>
+        <v>750.3019723332208</v>
       </c>
       <c r="W16" t="n">
-        <v>305.8408313751036</v>
+        <v>460.8848022962601</v>
       </c>
       <c r="X16" t="n">
-        <v>305.8408313751036</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y16" t="n">
-        <v>305.8408313751036</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1232.248790760447</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C17" t="n">
-        <v>863.2862738200351</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D17" t="n">
-        <v>863.2862738200351</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E17" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
         <v>66.51211643218342</v>
@@ -5518,7 +5518,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410102</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V17" t="n">
-        <v>2735.222376331575</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W17" t="n">
-        <v>2382.45372106146</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X17" t="n">
-        <v>2008.98796280038</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y17" t="n">
-        <v>1618.848630824569</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994.2880032601528</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3518203322459</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2351809199101</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="E19" t="n">
-        <v>527.322087337517</v>
+        <v>124.0604503439346</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396066</v>
+        <v>124.0604503439346</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U19" t="n">
-        <v>1927.294548088493</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V19" t="n">
-        <v>1914.135768168901</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W19" t="n">
-        <v>1624.71859813194</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X19" t="n">
-        <v>1396.729047233923</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y19" t="n">
-        <v>1175.936468090393</v>
+        <v>453.6220087565674</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1647.321240915451</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C20" t="n">
-        <v>1278.358723975039</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F20" t="n">
-        <v>481.584566587187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V20" t="n">
-        <v>3150.294826486578</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W20" t="n">
-        <v>2797.526171216464</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X20" t="n">
-        <v>2424.060412955384</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y20" t="n">
-        <v>2033.921080979572</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="21">
@@ -5807,64 +5807,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927785</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>973.8691772799922</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C22" t="n">
-        <v>804.9329943520853</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D22" t="n">
-        <v>654.8163549397495</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E22" t="n">
-        <v>506.9032613573564</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F22" t="n">
-        <v>360.013313859446</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5940,22 +5940,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U22" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V22" t="n">
-        <v>1383.507193008249</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W22" t="n">
-        <v>1383.507193008249</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X22" t="n">
-        <v>1155.517642110232</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y22" t="n">
-        <v>1155.517642110232</v>
+        <v>527.322087337517</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1822.632236038042</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="C23" t="n">
-        <v>1453.66971909763</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D23" t="n">
-        <v>1095.40402049088</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E23" t="n">
-        <v>709.6157678926356</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F23" t="n">
-        <v>298.6298631030281</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>298.6298631030281</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3300.017311314693</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>3046.48683458853</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.60582160917</v>
+        <v>2715.423947244959</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339055</v>
+        <v>2715.423947244959</v>
       </c>
       <c r="X23" t="n">
-        <v>2599.371408077976</v>
+        <v>2341.958188983879</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.232076102164</v>
+        <v>1951.818857008067</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2170.872131622241</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="C25" t="n">
-        <v>2170.872131622241</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="D25" t="n">
-        <v>2170.872131622241</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.959038039848</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F25" t="n">
-        <v>1876.069090541938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G25" t="n">
-        <v>1708.366253916657</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H25" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T25" t="n">
-        <v>2822.32286476305</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U25" t="n">
-        <v>2533.219997888693</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>2278.535509682807</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W25" t="n">
-        <v>2170.872131622241</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X25" t="n">
-        <v>2170.872131622241</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y25" t="n">
-        <v>2170.872131622241</v>
+        <v>644.3338566427969</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C26" t="n">
         <v>1636.624422581789</v>
@@ -6217,19 +6217,19 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6238,40 +6238,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>3155.791869823214</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W26" t="n">
-        <v>3155.791869823214</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X26" t="n">
-        <v>2782.326111562134</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y26" t="n">
-        <v>2392.186779586323</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.613680441807</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
         <v>111.6347488791189</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658018</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U28" t="n">
-        <v>1705.527932658018</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V28" t="n">
-        <v>1705.527932658018</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W28" t="n">
-        <v>1416.110762621058</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X28" t="n">
-        <v>1416.110762621058</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.262145272047</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1859.132475219474</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C29" t="n">
-        <v>1859.132475219474</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.942324366272</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V29" t="n">
-        <v>3009.337405520487</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W29" t="n">
-        <v>3009.337405520487</v>
+        <v>2359.017712435363</v>
       </c>
       <c r="X29" t="n">
-        <v>2635.871647259407</v>
+        <v>1985.551954174283</v>
       </c>
       <c r="Y29" t="n">
-        <v>2245.732315283596</v>
+        <v>1595.412622198471</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6566,28 +6566,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>249.4793381277377</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>249.4793381277377</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>249.4793381277377</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>249.4793381277377</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>102.5893906298274</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>102.5893906298274</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>102.5893906298274</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.6347488791189</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U31" t="n">
-        <v>1424.011591242373</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V31" t="n">
-        <v>1169.327103036486</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W31" t="n">
-        <v>879.9099329995249</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X31" t="n">
-        <v>651.9203821015076</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="Y31" t="n">
-        <v>431.1278029579775</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1477.112184968822</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C32" t="n">
-        <v>1108.149668028411</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D32" t="n">
-        <v>749.8839694216604</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E32" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F32" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6712,10 +6712,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296685</v>
@@ -6724,13 +6724,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
         <v>2755.806928794324</v>
@@ -6739,7 +6739,7 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X32" t="n">
         <v>1698.509627919559</v>
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D33" t="n">
         <v>618.1564155387305</v>
@@ -6767,7 +6767,7 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G33" t="n">
         <v>176.021302392778</v>
@@ -6776,7 +6776,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6791,22 +6791,22 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T33" t="n">
         <v>2242.828302297192</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1876.069090541939</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C34" t="n">
-        <v>1876.069090541939</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D34" t="n">
-        <v>1876.069090541939</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E34" t="n">
-        <v>1876.069090541939</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193524</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.32286476305</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888694</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V34" t="n">
-        <v>2386.278839722429</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W34" t="n">
-        <v>2096.861669685469</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X34" t="n">
-        <v>2096.861669685469</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y34" t="n">
-        <v>1876.069090541939</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1647.321240915451</v>
+        <v>2098.941407629259</v>
       </c>
       <c r="C35" t="n">
-        <v>1278.358723975039</v>
+        <v>1729.978890688847</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>1371.713192082097</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>985.9249394838523</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>574.9390346942448</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>159.8665845392413</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>2797.526171216464</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V35" t="n">
-        <v>2797.526171216464</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W35" t="n">
-        <v>2797.526171216464</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X35" t="n">
-        <v>2424.060412955384</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y35" t="n">
-        <v>2033.921080979572</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7037,7 +7037,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.51211643218342</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218342</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218342</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218342</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U37" t="n">
-        <v>1224.739181610488</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>970.0546934046014</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>680.6375233676408</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X37" t="n">
-        <v>452.6479724696235</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y37" t="n">
-        <v>231.8553933260934</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>2098.94140762926</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1729.978890688848</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1371.713192082098</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>985.9249394838532</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>574.9390346942457</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>159.8665845392422</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7186,40 +7186,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450752</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W38" t="n">
-        <v>2424.744041450752</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X38" t="n">
-        <v>2424.744041450752</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y38" t="n">
-        <v>2424.744041450752</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7271,34 +7271,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>946.3334672034053</v>
+        <v>912.4415581410484</v>
       </c>
       <c r="C40" t="n">
-        <v>777.3972842754985</v>
+        <v>743.5053752131415</v>
       </c>
       <c r="D40" t="n">
-        <v>627.2806448631627</v>
+        <v>593.3887358008058</v>
       </c>
       <c r="E40" t="n">
-        <v>479.3675512807696</v>
+        <v>445.4756422184126</v>
       </c>
       <c r="F40" t="n">
-        <v>332.4776037828592</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G40" t="n">
-        <v>164.7747671575782</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7368,16 +7368,16 @@
         <v>1638.191681214136</v>
       </c>
       <c r="V40" t="n">
-        <v>1638.191681214136</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W40" t="n">
-        <v>1348.774511177175</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X40" t="n">
-        <v>1348.774511177175</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1127.981932033645</v>
+        <v>1094.090022971288</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1477.112184968822</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C41" t="n">
-        <v>1108.149668028411</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D41" t="n">
-        <v>749.8839694216604</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>364.0957168234162</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V41" t="n">
-        <v>2884.252265792694</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W41" t="n">
-        <v>2531.48361052258</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X41" t="n">
-        <v>2158.0178522615</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y41" t="n">
-        <v>1863.712025032944</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7508,10 +7508,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1722.044275313594</v>
+        <v>1737.96822364669</v>
       </c>
       <c r="T43" t="n">
-        <v>1722.044275313594</v>
+        <v>1516.201608216216</v>
       </c>
       <c r="U43" t="n">
-        <v>1722.044275313594</v>
+        <v>1227.09874134186</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.044275313594</v>
+        <v>972.4142531359726</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.044275313594</v>
+        <v>682.9970830990119</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>455.0075322009945</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.586939522201</v>
+        <v>1501.213961756481</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>1501.213961756481</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066529</v>
       </c>
       <c r="W44" t="n">
-        <v>3155.791869823214</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="X44" t="n">
-        <v>2782.326111562134</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="Y44" t="n">
-        <v>2392.186779586323</v>
+        <v>1887.813801820603</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,10 +7742,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>994.2880032601528</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C46" t="n">
-        <v>825.3518203322459</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2351809199101</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E46" t="n">
-        <v>527.322087337517</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1919.61668847693</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1697.850073046456</v>
       </c>
       <c r="U46" t="n">
-        <v>1513.842048484845</v>
+        <v>1408.747206172099</v>
       </c>
       <c r="V46" t="n">
-        <v>1513.842048484845</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W46" t="n">
-        <v>1513.842048484845</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X46" t="n">
-        <v>1285.852497586828</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y46" t="n">
-        <v>1175.936468090393</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
   </sheetData>
@@ -7996,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>204.097933851658</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>97.39694577501817</v>
       </c>
       <c r="R2" t="n">
-        <v>60.46423702465498</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.006607450143932</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>115.2874122323265</v>
       </c>
       <c r="O3" t="n">
-        <v>92.20145849837519</v>
+        <v>42.91480554773582</v>
       </c>
       <c r="P3" t="n">
-        <v>5.445977264406125</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>60.35797727397778</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>114.3555089013354</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>231.2582814363237</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L12" t="n">
-        <v>54.95314511566431</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="Q15" t="n">
-        <v>114.355508901333</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.5158810428359</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>75.48368430435738</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>90.92525810265295</v>
       </c>
       <c r="G2" t="n">
-        <v>412.8332920963226</v>
+        <v>96.96611630687829</v>
       </c>
       <c r="H2" t="n">
-        <v>314.1845942203543</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.2725950616392</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7475821050568</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1480972743315</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>63.78335194887632</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.27206219615442</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>105.7621941572104</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>116.2505279736844</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -22634,16 +22634,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>44.39306181166777</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.12320678951716</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
-        <v>147.141164401179</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8390842651301</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544564373999</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22713,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>104.1461999732264</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>204.712265112693</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2126543868567</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586089091536</v>
+        <v>233.402595207797</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>80.56019648980089</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>275.3395624589973</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22944,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>141.2921066840203</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,22 +22992,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>80.85095794181376</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>96.24205780253362</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>166.3456615090847</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>58.77464272172466</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23241,10 +23241,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>178.0508199596874</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>207.7584247917827</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>291.3644095657718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>198.1491878966263</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>83.38551892142709</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50.22426914905009</v>
+        <v>286.6048507762802</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247041</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,10 +23670,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>76.4932475401145</v>
       </c>
       <c r="T16" t="n">
-        <v>24.55728874774238</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>103.4555813923926</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>330.8650149868092</v>
       </c>
     </row>
     <row r="18">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>109.0529576863946</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23940,16 +23940,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -24028,7 +24028,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>154.1943732987666</v>
+        <v>207.143451054173</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>20.21463772035906</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>102.7430017398672</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>64.81119518318425</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>178.5853449480878</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>30.59231103434205</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>179.9362540566314</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>159.6364462020386</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>176.0351984253878</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>176.741833211046</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>77.16452217657417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>74.32479227601266</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -24733,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>80.25393285255632</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>60.63591895417057</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>154.8576191056872</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>163.5503731422518</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>234.118658496369</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>106.6658967392263</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>210.2948231827795</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>202.1868409613332</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -25207,16 +25207,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>41.30204999791837</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.14213605696645</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>137.8199670074842</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>303.9530049144612</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>202.1868409613323</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>81.0279806679133</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>47.47499069617996</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>71.93701474117927</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>94.87516969978321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>75.50340795434026</v>
+        <v>2.335964134057321</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>175.6332859899806</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>181.1251564493158</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>182.1679443159954</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>109.7677841506238</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>519039.0947300903</v>
+        <v>556657.2358063989</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>776970.4433869659</v>
+        <v>776970.4433869655</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>776970.4433869657</v>
+        <v>776970.4433869655</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>776970.443386966</v>
+        <v>776970.4433869655</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776970.4433869658</v>
+        <v>776970.4433869655</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>858592.1870774251</v>
+        <v>858592.1870774252</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>858592.1870774251</v>
+        <v>858592.1870774252</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>858592.1870774253</v>
+        <v>858592.187077425</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>858592.1870774252</v>
+        <v>858592.1870774251</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>858592.1870774253</v>
+        <v>858592.1870774248</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204036.0885141377</v>
+        <v>215476.2375772243</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943088</v>
+        <v>305971.6304943084</v>
       </c>
       <c r="D2" t="n">
+        <v>305971.6304943087</v>
+      </c>
+      <c r="E2" t="n">
+        <v>305971.6304943087</v>
+      </c>
+      <c r="F2" t="n">
         <v>305971.6304943086</v>
       </c>
-      <c r="E2" t="n">
-        <v>305971.6304943088</v>
-      </c>
-      <c r="F2" t="n">
-        <v>305971.6304943087</v>
-      </c>
       <c r="G2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="H2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="I2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="J2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="K2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="L2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="L2" t="n">
-        <v>340997.0989709206</v>
-      </c>
       <c r="M2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="N2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="O2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="N2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="O2" t="n">
-        <v>340997.0989709205</v>
-      </c>
       <c r="P2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709207</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680384.9918142048</v>
+        <v>677763.6612810282</v>
       </c>
       <c r="C3" t="n">
-        <v>412875.292433492</v>
+        <v>415020.578414936</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.357775545329787e-10</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>173363.8810341903</v>
+        <v>173363.8810341909</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69065.88057784822</v>
+        <v>82666.62788103377</v>
       </c>
       <c r="K3" t="n">
-        <v>96928.88753435962</v>
+        <v>83550.4147548336</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.41656073537888e-10</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45920.21121431062</v>
+        <v>45920.21121431071</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9177.751250163041</v>
+        <v>18231.94298005888</v>
       </c>
       <c r="C4" t="n">
-        <v>12563.18241499342</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="D4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="E4" t="n">
-        <v>12563.18241499339</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="F4" t="n">
-        <v>12563.18241499339</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="G4" t="n">
         <v>6720.683277029938</v>
@@ -26444,19 +26444,19 @@
         <v>6720.683277029948</v>
       </c>
       <c r="K4" t="n">
-        <v>6720.683277029948</v>
+        <v>6720.68327702995</v>
       </c>
       <c r="L4" t="n">
         <v>6720.683277029938</v>
       </c>
       <c r="M4" t="n">
+        <v>6720.683277029948</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6720.68327702995</v>
+      </c>
+      <c r="O4" t="n">
         <v>6720.683277029938</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6720.683277029938</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6720.683277029948</v>
       </c>
       <c r="P4" t="n">
         <v>6720.683277029938</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63068.0946613577</v>
+        <v>65775.18687582457</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984475</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984475</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.34056139327</v>
       </c>
-      <c r="J5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="N5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139326</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-548594.7492115879</v>
+        <v>-556046.7859274332</v>
       </c>
       <c r="C6" t="n">
-        <v>-212404.6167940214</v>
+        <v>-219777.3654973573</v>
       </c>
       <c r="D6" t="n">
-        <v>200470.6756394706</v>
+        <v>195243.212917579</v>
       </c>
       <c r="E6" t="n">
-        <v>234098.2756394706</v>
+        <v>228870.8129175789</v>
       </c>
       <c r="F6" t="n">
-        <v>234098.2756394703</v>
+        <v>228870.8129175788</v>
       </c>
       <c r="G6" t="n">
-        <v>86606.19409830705</v>
+        <v>83130.0048002453</v>
       </c>
       <c r="H6" t="n">
-        <v>259970.0751324974</v>
+        <v>256493.8858344364</v>
       </c>
       <c r="I6" t="n">
-        <v>259970.0751324976</v>
+        <v>256493.8858344366</v>
       </c>
       <c r="J6" t="n">
-        <v>190904.194554649</v>
+        <v>173827.2579534025</v>
       </c>
       <c r="K6" t="n">
-        <v>163041.1875981379</v>
+        <v>172943.4710796026</v>
       </c>
       <c r="L6" t="n">
-        <v>259970.0751324975</v>
+        <v>256493.8858344364</v>
       </c>
       <c r="M6" t="n">
-        <v>259970.0751324973</v>
+        <v>256493.8858344363</v>
       </c>
       <c r="N6" t="n">
-        <v>259970.0751324974</v>
+        <v>256493.8858344362</v>
       </c>
       <c r="O6" t="n">
-        <v>214049.8639181866</v>
+        <v>210573.6746201257</v>
       </c>
       <c r="P6" t="n">
-        <v>259970.0751324974</v>
+        <v>256493.8858344364</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.2745479295952</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175397</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.9689065212586</v>
+        <v>315.9507876390585</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.2745479295952</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>319.7903441879442</v>
+        <v>340.588791779474</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26971,10 +26971,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>155.7118084757586</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.9689065212586</v>
+        <v>315.9507876390585</v>
       </c>
       <c r="C4" t="n">
-        <v>376.6159255787807</v>
+        <v>324.6340444609802</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.9689065212587</v>
+        <v>315.9507876390583</v>
       </c>
       <c r="K4" t="n">
-        <v>376.6159255787807</v>
+        <v>324.6340444609804</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.9689065212586</v>
+        <v>315.9507876390585</v>
       </c>
       <c r="K4" t="n">
-        <v>376.6159255787807</v>
+        <v>324.6340444609802</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.469445418812441</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H2" t="n">
-        <v>25.29020789541292</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I2" t="n">
-        <v>95.20329450876673</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5910931149326</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>314.1227176932633</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>389.6970079292446</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M2" t="n">
-        <v>433.6130078960504</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6293196922513</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>416.073771808935</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P2" t="n">
-        <v>355.1093380320028</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.6723239707822</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R2" t="n">
-        <v>155.1213007894771</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>56.27248748118856</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80999732085147</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1975556335049952</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.321269782339129</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
-        <v>12.76068447680159</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>45.49108680422003</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8310192165228</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>213.3560946332444</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L3" t="n">
-        <v>286.883599011836</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>334.7796286216293</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N3" t="n">
-        <v>343.6402492233686</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>314.3636924673278</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>252.3045779977238</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.6589287070089</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>82.03462736312598</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S3" t="n">
-        <v>24.54200670265881</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.325644429691488</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08692564357494276</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107708201184516</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.848532915985976</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I4" t="n">
-        <v>33.31180663198527</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J4" t="n">
-        <v>78.31496982374526</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6955528285283</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6859992924689</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M4" t="n">
-        <v>173.6382955729509</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>169.5095650048997</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5695192001533</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>133.972271895989</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.75545673736887</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R4" t="n">
-        <v>49.80658875507831</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>19.30433292427924</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>4.732935041424748</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0604204473373373</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I11" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T11" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H12" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J12" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K12" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R12" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,25 +31916,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K13" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L13" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M13" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P13" t="n">
         <v>203.7180217169137</v>
@@ -31943,16 +31943,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H14" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I14" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L14" t="n">
-        <v>592.5726450767384</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730007</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342228</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166598</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190647</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745102</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T14" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H15" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J15" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K15" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177246</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M15" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405677</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378627</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.4624964168762</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R15" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H16" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J16" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K16" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L16" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M16" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N16" t="n">
-        <v>257.755972606796</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154674</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P16" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q16" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>75.7358189575959</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S16" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069565</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33517,7 +33517,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33991,7 +33991,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987486</v>
@@ -34225,7 +34225,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.54518858824633</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
-        <v>94.03286664828278</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L2" t="n">
-        <v>153.9305929592574</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M2" t="n">
-        <v>203.2667746687776</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N2" t="n">
-        <v>211.2162560956604</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>185.9755603872483</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P2" t="n">
-        <v>123.8763422767333</v>
+        <v>315.9507876390585</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.36663409633272</v>
+        <v>132.7344407463264</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.51465565888543</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L3" t="n">
-        <v>148.3292192319618</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M3" t="n">
-        <v>192.645594699611</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N3" t="n">
-        <v>212.2985371400353</v>
+        <v>315.9507876390585</v>
       </c>
       <c r="O3" t="n">
-        <v>263.9689065212586</v>
+        <v>204.0383536979991</v>
       </c>
       <c r="P3" t="n">
-        <v>123.7761478477996</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.67715462098735</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.4260610026454</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>192.276024552785</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>213.2221725347915</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>213.6417373841283</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>181.1546471141929</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2508311608825</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.593413485674489</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>246.9454735174627</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>230.83623123219</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>417.8457776798086</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P11" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R11" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K12" t="n">
-        <v>451.0527332560635</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L12" t="n">
-        <v>352.6335057535146</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N12" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O12" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q12" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K13" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L13" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M13" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O13" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P13" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225039</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K14" t="n">
-        <v>257.564649540734</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067511</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M14" t="n">
-        <v>429.005010945728</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376319</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949731</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P14" t="n">
-        <v>308.7456939637952</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402559</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0527332560636</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N15" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O15" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P15" t="n">
-        <v>249.6795291235325</v>
+        <v>443.0068759113673</v>
       </c>
       <c r="Q15" t="n">
-        <v>230.8362312321877</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R15" t="n">
-        <v>24.58388860977099</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870599</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K16" t="n">
-        <v>173.4247593423492</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L16" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M16" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860246</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O16" t="n">
-        <v>262.6644876295071</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P16" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127271</v>
@@ -37873,7 +37873,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
